--- a/data/included_studies_2023-11-24_LSR3_H.xlsx
+++ b/data/included_studies_2023-11-24_LSR3_H.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/LRZ Sync+Share/Projects/GALENOS/3. systematic reviews/taar/4_analysis/lsr3_rmarkdown/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sksiafis/Documents/GitHub/LSR3_taar1_H/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD0BC5A-4870-3845-A4F7-22251EE09024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C176D2E0-5DB7-D84A-8864-FEBE2544D36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of included studies" sheetId="9" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="266">
   <si>
     <t>ID</t>
   </si>
@@ -715,9 +715,6 @@
     <t>08.06.23</t>
   </si>
   <si>
-    <t>Efficacy</t>
-  </si>
-  <si>
     <t>SEP361-302, NCT04092686, EUCTR2019-000697-37</t>
   </si>
   <si>
@@ -830,6 +827,15 @@
   </si>
   <si>
     <t>Efficacy, dropouts, side-effects (open label phase only)</t>
+  </si>
+  <si>
+    <t>DB-RCT single ascending dose (phase 1)</t>
+  </si>
+  <si>
+    <t>RO5263397, placebo</t>
+  </si>
+  <si>
+    <t>Efficacy, dropouts</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1225,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1279,7 @@
         <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>68</v>
@@ -1331,7 +1337,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
         <v>79</v>
@@ -1375,7 +1381,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
         <v>86</v>
@@ -1419,7 +1425,7 @@
         <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C5" t="s">
         <v>57</v>
@@ -1507,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
         <v>102</v>
@@ -1516,13 +1522,13 @@
         <v>71</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
         <v>103</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="H7">
         <v>49</v>
@@ -1636,10 +1642,10 @@
     </row>
     <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C10" t="s">
         <v>116</v>
@@ -1771,7 +1777,7 @@
         <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" t="s">
         <v>131</v>
@@ -2027,7 +2033,7 @@
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
@@ -2079,7 +2085,7 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" t="s">
         <v>159</v>
@@ -2255,7 +2261,7 @@
         <v>55</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C24" t="s">
         <v>176</v>
@@ -2387,7 +2393,7 @@
         <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" t="s">
         <v>192</v>
@@ -2431,7 +2437,7 @@
         <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C28" t="s">
         <v>197</v>
@@ -2575,7 +2581,7 @@
         <v>80</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
         <v>114</v>
@@ -2687,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -2698,7 +2704,7 @@
         <v>25</v>
       </c>
       <c r="C34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
         <v>105</v>
@@ -2719,10 +2725,10 @@
         <v>83</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="L34">
         <v>2023</v>
@@ -2731,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
@@ -2739,16 +2745,16 @@
         <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
         <v>105</v>
       </c>
       <c r="E35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F35" t="s">
         <v>222</v>
@@ -2763,10 +2769,10 @@
         <v>209</v>
       </c>
       <c r="J35" t="s">
+        <v>230</v>
+      </c>
+      <c r="K35" t="s">
         <v>231</v>
-      </c>
-      <c r="K35" t="s">
-        <v>232</v>
       </c>
       <c r="L35" t="s">
         <v>102</v>
@@ -2783,10 +2789,10 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D36" t="s">
         <v>105</v>
@@ -2798,7 +2804,7 @@
         <v>123</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H36">
         <v>475</v>
@@ -2807,10 +2813,10 @@
         <v>209</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="L36">
         <v>2022</v>
@@ -2827,10 +2833,10 @@
         <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D37" t="s">
         <v>105</v>
@@ -2848,13 +2854,13 @@
         <v>120</v>
       </c>
       <c r="I37" t="s">
+        <v>237</v>
+      </c>
+      <c r="J37" t="s">
         <v>238</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>239</v>
-      </c>
-      <c r="K37" t="s">
-        <v>240</v>
       </c>
       <c r="L37" t="s">
         <v>102</v>
@@ -2871,16 +2877,16 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D38" t="s">
         <v>105</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
         <v>123</v>
@@ -2892,13 +2898,13 @@
         <v>67</v>
       </c>
       <c r="I38" t="s">
+        <v>242</v>
+      </c>
+      <c r="J38" t="s">
         <v>243</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>244</v>
-      </c>
-      <c r="K38" t="s">
-        <v>245</v>
       </c>
       <c r="L38" t="s">
         <v>102</v>
